--- a/xlsx/美国地理_intext.xlsx
+++ b/xlsx/美国地理_intext.xlsx
@@ -15,507 +15,510 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>美国地理</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%87%8C</t>
+  </si>
+  <si>
+    <t>海里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%8A%E7%90%83</t>
+  </si>
+  <si>
+    <t>西半球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%AC%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国本土</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>夏威夷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>太平洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>加勒比海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国领土</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A6%AC</t>
+  </si>
+  <si>
+    <t>巴哈马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E8%B3%BD%E6%AC%BD</t>
+  </si>
+  <si>
+    <t>阿克赛钦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E5%96%87%E5%B4%91%E5%B4%99%E8%B5%B0%E5%BB%8A</t>
+  </si>
+  <si>
+    <t>喀喇崑崙走廊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E6%B3%81</t>
+  </si>
+  <si>
+    <t>世界概况</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>大英百科全书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国国务院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
+  </si>
+  <si>
+    <t>地理坐标</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Middle_America</t>
+  </si>
+  <si>
+    <t>Middle America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B2%BF%E6%B5%B7%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国沿海州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8D%97%E6%96%B9</t>
+  </si>
+  <si>
+    <t>上南方</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B7%B1%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国深南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国东部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%B2%B8</t>
+  </si>
+  <si>
+    <t>美国东岸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%B2%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国墨西哥湾沿岸地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B1%B1%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国山区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国东北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%B2%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国太平洋沿岸地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国南大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国东南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%B2%B8</t>
+  </si>
+  <si>
+    <t>美国西岸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E6%B9%96%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>五大湖地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E8%A5%BF%E5%8C%97%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>太平洋西北地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E6%B4%B2%E9%A2%98%E7%9B%AE</t>
+  </si>
+  <si>
+    <t>Template talk-美洲题目</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>联合国会员国列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>阿根廷地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>巴拉圭地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>巴拿马地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>秘鲁地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>玻利维亚地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>哥伦比亚地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E9%81%94%E9%BB%8E%E5%8A%A0%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>哥斯达黎加地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9E%E9%82%A3%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>圭亚那地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>海地地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>洪都拉斯地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>尼加拉瓜地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E9%81%94%E5%92%8C%E5%A4%9A%E5%B7%B4%E5%93%A5%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>特立尼达和多巴哥地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>瓜地马拉地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>委内瑞拉地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>乌拉圭地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>牙买加地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>智利地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>百慕大地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>福克兰群岛地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>格陵兰地理</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%87%8C</t>
-  </si>
-  <si>
-    <t>海里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%8A%E7%90%83</t>
-  </si>
-  <si>
-    <t>西半球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%AC%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美國本土</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>夏威夷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美國州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>半島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>太平洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>加勒比海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美國領土</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>關島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A6%AC</t>
-  </si>
-  <si>
-    <t>巴哈馬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國家面積列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E8%B3%BD%E6%AC%BD</t>
-  </si>
-  <si>
-    <t>阿克賽欽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E5%96%87%E5%B4%91%E5%B4%99%E8%B5%B0%E5%BB%8A</t>
-  </si>
-  <si>
-    <t>喀喇崑崙走廊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E6%B3%81</t>
-  </si>
-  <si>
-    <t>世界概況</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>大英百科全书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國國務院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
-  </si>
-  <si>
-    <t>地理坐标</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美國地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Middle_America</t>
-  </si>
-  <si>
-    <t>Middle America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B2%BF%E6%B5%B7%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美國沿海州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8D%97%E6%96%B9</t>
-  </si>
-  <si>
-    <t>上南方</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B7%B1%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國深南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國東部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%B2%B8</t>
-  </si>
-  <si>
-    <t>美國東岸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%B2%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國墨西哥灣沿岸地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B1%B1%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國山區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國東北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%B2%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國太平洋沿岸地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國南大西洋地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國東南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%B2%B8</t>
-  </si>
-  <si>
-    <t>美國西岸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E6%B9%96%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>五大湖地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E8%A5%BF%E5%8C%97%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>太平洋西北地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E6%B4%B2%E9%A2%98%E7%9B%AE</t>
-  </si>
-  <si>
-    <t>Template talk-美洲题目</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>聯合國會員國列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>阿根廷地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>巴拉圭地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>巴拿馬地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>秘鲁地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>玻利維亞地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>哥倫比亞地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E9%81%94%E9%BB%8E%E5%8A%A0%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>哥斯達黎加地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9E%E9%82%A3%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>圭亞那地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>海地地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>洪都拉斯地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>尼加拉瓜地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E9%81%94%E5%92%8C%E5%A4%9A%E5%B7%B4%E5%93%A5%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>特立尼達和多巴哥地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>瓜地馬拉地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>委內瑞拉地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>乌拉圭地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>牙買加地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>智利地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>属地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>百慕大地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>福克兰群岛地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>格陵兰地理</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -864,7 +867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -1875,7 +1878,7 @@
         <v>68</v>
       </c>
       <c r="G35" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -2136,7 +2139,7 @@
         <v>86</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -2165,7 +2168,7 @@
         <v>88</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -2223,7 +2226,7 @@
         <v>92</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -2252,7 +2255,7 @@
         <v>94</v>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -2281,7 +2284,7 @@
         <v>96</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -2310,7 +2313,7 @@
         <v>98</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -2368,7 +2371,7 @@
         <v>102</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -2397,7 +2400,7 @@
         <v>104</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -2484,7 +2487,7 @@
         <v>110</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -2513,7 +2516,7 @@
         <v>112</v>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -2600,7 +2603,7 @@
         <v>118</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -2629,7 +2632,7 @@
         <v>120</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -2658,7 +2661,7 @@
         <v>122</v>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -2890,7 +2893,7 @@
         <v>138</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -2919,7 +2922,7 @@
         <v>140</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -3296,12 +3299,41 @@
         <v>166</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
       </c>
       <c r="I84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>165</v>
+      </c>
+      <c r="F85" t="s">
+        <v>167</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>4</v>
+      </c>
+      <c r="I85" t="n">
         <v>3</v>
       </c>
     </row>
